--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa\Documents\UiPath\UtilityBill\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A0F1B0-07DE-4CEC-86E9-8FD10724C40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="690" yWindow="2745" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Assets" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -45,12 +60,6 @@
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
-    <t>TransactionFile</t>
-  </si>
-  <si>
-    <t>Template.xlsx</t>
-  </si>
-  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -169,19 +178,103 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>MappingTemplatePath</t>
+  </si>
+  <si>
+    <t>RunSpecific</t>
+  </si>
+  <si>
+    <t>BotRunner</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>prod_test</t>
+  </si>
+  <si>
+    <t>CreditCardTips_SheetName</t>
+  </si>
+  <si>
+    <t>GlobalBakePath</t>
+  </si>
+  <si>
+    <t>GlobalBakeUsername</t>
+  </si>
+  <si>
+    <t>rpa@123</t>
+  </si>
+  <si>
+    <t>rpa</t>
+  </si>
+  <si>
+    <t>dev_ExceptionMailTo</t>
+  </si>
+  <si>
+    <t>Dev_OutlookProfileName</t>
+  </si>
+  <si>
+    <t>Dev_BotfolderPath</t>
+  </si>
+  <si>
+    <t>prod_BotfolderPath</t>
+  </si>
+  <si>
+    <t>Prod_OutlookProfileName</t>
+  </si>
+  <si>
+    <t>prod_ExceptionMailTo</t>
+  </si>
+  <si>
+    <t>UtilityBills</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\Testing\BotSideFiles</t>
+  </si>
+  <si>
+    <t>C:\Program Files\GlobalBake\GlobalBake.exe</t>
+  </si>
+  <si>
+    <t>dev_SuccessMailTo</t>
+  </si>
+  <si>
+    <t>prod_SuccessMailTo</t>
+  </si>
+  <si>
+    <t>GlobalBakePassword</t>
+  </si>
+  <si>
+    <t>mohammed.imrankhan@teamhgs.com</t>
+  </si>
+  <si>
+    <t>rpa@foodquest.ae</t>
+  </si>
+  <si>
+    <t>Dev_ExceptionFolderPath</t>
+  </si>
+  <si>
+    <t>prod_ExceptionFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\Testing\BotSideFiles\Exception\</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\Testing\BotSideFiles\Templates\Non-stock Supplier Mapping Template.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -196,158 +289,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,192 +317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -549,311 +330,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,27 +612,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="70.1363636363636" customWidth="1"/>
-    <col min="3" max="3" width="68.5727272727273" customWidth="1"/>
-    <col min="4" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +666,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:3">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1176,8 +677,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1" spans="1:3">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1188,25 +689,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2190,28 +1684,26 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="63.5727272727273" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
-    <col min="4" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2245,213 +1737,323 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1" spans="1:3">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>5000</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>30000</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>120000</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
-        <v>22</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>15000</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>60000</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>0.6</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>0.8</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>0.9</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" customHeight="1">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" customHeight="1">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" customHeight="1">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" customHeight="1">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -3402,37 +3004,80 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B36" r:id="rId1" xr:uid="{4BEB7CE4-B703-4FCF-9124-5E43C79D12CC}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{BCD14958-A096-4696-9A2C-559D6A93E13F}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84F874A7-772D-4A72-9553-A3A1929F13A4}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B35</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9306AD5C-155B-4F4E-B72A-B865DCDE2E43}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="65.4272727272727" customWidth="1"/>
+    <col min="1" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3458,21 +3103,21 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4459,6 +4104,5 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>